--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E7365C-5F2E-4F18-BBD9-E317AE82B8E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626996D3-7047-4234-8CAB-6B0596398EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="660" windowWidth="22140" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,15 +210,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,77 +503,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G25"/>
+  <dimension ref="A3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="6"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -571,7 +583,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1">
         <v>1011</v>
@@ -593,7 +605,7 @@
       <c r="C8" s="1">
         <v>1012</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1">
@@ -610,243 +622,277 @@
       <c r="C9" s="1">
         <v>1013</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="1">
-        <v>1014</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="C10" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
+        <v>200</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="1">
+      <c r="C12" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
         <v>1016</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="1">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="1">
         <v>3001</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="1">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="1">
         <v>3002</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="1">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="1">
         <v>3003</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="1">
         <v>3004</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="1">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
         <v>3005</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="1">
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
         <v>3006</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
         <v>3007</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="1">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
         <v>3008</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="1">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
         <v>3009</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>

--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626996D3-7047-4234-8CAB-6B0596398EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DAD539-D9E2-4908-861B-BF2A17B3636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="660" windowWidth="22140" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,26 @@
   </si>
   <si>
     <t>最大法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c是否是百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPrecent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -223,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G27"/>
+  <dimension ref="A3:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -516,9 +540,10 @@
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -534,8 +559,11 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -551,10 +579,13 @@
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
+      <c r="H4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -572,19 +603,22 @@
       <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
+      <c r="H5" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1">
         <v>1011</v>
       </c>
@@ -600,8 +634,11 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>1012</v>
       </c>
@@ -617,8 +654,11 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>1013</v>
       </c>
@@ -634,8 +674,11 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>1002</v>
       </c>
@@ -651,8 +694,11 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>1014</v>
       </c>
@@ -668,8 +714,11 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>1004</v>
       </c>
@@ -685,8 +734,11 @@
       <c r="G12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>1015</v>
       </c>
@@ -702,8 +754,11 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>1016</v>
       </c>
@@ -719,180 +774,270 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="6">
+        <v>1017</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="6">
+        <v>1018</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="6">
+        <v>1019</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="1">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="1">
         <v>3001</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="1">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1">
         <v>3002</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="1">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
         <v>3003</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="1">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1">
         <v>3004</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="1">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1">
         <v>3005</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="1">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1">
         <v>3006</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="1">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1">
         <v>3007</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1">
         <v>3008</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="1">
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1">
         <v>3009</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>

--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DAD539-D9E2-4908-861B-BF2A17B3636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3A2D9B-C1B9-4F51-918A-02645743553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="660" windowWidth="22140" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="1395" windowWidth="23190" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>isPrecent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -246,7 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -559,7 +570,7 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -579,13 +590,13 @@
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -603,13 +614,13 @@
       <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -617,8 +628,8 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1">
         <v>1011</v>
       </c>
@@ -839,13 +850,13 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1">
         <v>3001</v>
       </c>
@@ -866,7 +877,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1">
         <v>3002</v>
       </c>
@@ -943,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -963,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -983,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -1003,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -1023,14 +1034,48 @@
         <v>0</v>
       </c>
       <c r="H27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>3013</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>3015</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="7">
+        <v>500</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>

--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3A2D9B-C1B9-4F51-918A-02645743553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF7F2E-71DE-4477-BE56-D80406C3CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="1395" windowWidth="23190" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="900" windowWidth="23190" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,22 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s初始基础值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否用于展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s是否用于加成点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,19 +146,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c是否是百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isPrecent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存活状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>背包容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否用于加成点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始基础值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPercent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H30"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,24 +562,38 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -591,22 +613,22 @@
         <v>5</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>1</v>
@@ -634,7 +656,7 @@
         <v>1011</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -654,7 +676,7 @@
         <v>1012</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -674,7 +696,7 @@
         <v>1013</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>200</v>
@@ -694,7 +716,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>200</v>
@@ -714,7 +736,7 @@
         <v>1014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -734,7 +756,7 @@
         <v>1004</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2">
         <v>100</v>
@@ -754,7 +776,7 @@
         <v>1015</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
@@ -774,7 +796,7 @@
         <v>1016</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -794,7 +816,7 @@
         <v>1017</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="6">
         <v>5000</v>
@@ -814,7 +836,7 @@
         <v>1018</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -834,7 +856,7 @@
         <v>1019</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -851,7 +873,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -861,7 +883,7 @@
         <v>3001</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -882,7 +904,7 @@
         <v>3002</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -902,7 +924,7 @@
         <v>3003</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -922,7 +944,7 @@
         <v>3004</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -942,7 +964,7 @@
         <v>3005</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
@@ -962,7 +984,7 @@
         <v>3006</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
@@ -982,7 +1004,7 @@
         <v>3007</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1002,7 +1024,7 @@
         <v>3008</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1022,7 +1044,7 @@
         <v>3009</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1042,7 +1064,7 @@
         <v>3013</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
@@ -1062,7 +1084,7 @@
         <v>3015</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E29" s="7">
         <v>500</v>

--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF7F2E-71DE-4477-BE56-D80406C3CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CD118B-75B5-486D-8910-EEE9093A951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-75" yWindow="900" windowWidth="23190" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>isPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮革</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +265,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -546,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,8 +628,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -641,8 +652,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -650,8 +661,8 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1">
         <v>1011</v>
       </c>
@@ -872,13 +883,13 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1">
         <v>3001</v>
       </c>
@@ -899,7 +910,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1">
         <v>3002</v>
       </c>
@@ -1100,7 +1111,44 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>3016</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="9">
+        <v>3017</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C371EE-A2C3-4F20-9065-66E4769BBB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D68A3-A890-46B6-AC8A-5576C8FAE1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" xr2:uid="{8807035C-A0EC-4FDC-B7C6-F795F8E7E83B}"/>
+    <workbookView xWindow="2610" yWindow="2865" windowWidth="21480" windowHeight="13095" xr2:uid="{8807035C-A0EC-4FDC-B7C6-F795F8E7E83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +456,7 @@
   <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,9 +531,15 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -529,9 +547,15 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -539,9 +563,15 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>200</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>

--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D68A3-A890-46B6-AC8A-5576C8FAE1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2875D9-E3B8-4FB9-9FDB-D986DDF2F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2865" windowWidth="21480" windowHeight="13095" xr2:uid="{8807035C-A0EC-4FDC-B7C6-F795F8E7E83B}"/>
+    <workbookView xWindow="2640" yWindow="1575" windowWidth="21480" windowHeight="13095" xr2:uid="{8807035C-A0EC-4FDC-B7C6-F795F8E7E83B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>当前血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +460,7 @@
   <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,9 +583,15 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>

--- a/Excel/PlayerNumericConfig.xlsx
+++ b/Excel/PlayerNumericConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2875D9-E3B8-4FB9-9FDB-D986DDF2F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5587A-5EFF-4CB1-A628-3929BB85B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1575" windowWidth="21480" windowHeight="13095" xr2:uid="{8807035C-A0EC-4FDC-B7C6-F795F8E7E83B}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="C3:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
